--- a/results/real_classification_adult.xlsx
+++ b/results/real_classification_adult.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arushi Jain\MIT Dropbox\Arushi Jain\FairAI\results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7AD5BDA-B87A-4CFE-81A8-9324F04C6094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
   <si>
     <t>Protected_Feature</t>
   </si>
@@ -31,12 +25,27 @@
     <t>weighted_Fairness_target</t>
   </si>
   <si>
+    <t>weighted_average_target</t>
+  </si>
+  <si>
+    <t>weighted_otheravg_target</t>
+  </si>
+  <si>
+    <t>weighted_average_pred</t>
+  </si>
+  <si>
+    <t>weighted_otheravg_pred</t>
+  </si>
+  <si>
     <t>weighted_Fairness_pred</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
+    <t>dataset</t>
+  </si>
+  <si>
     <t>sex</t>
   </si>
   <si>
@@ -110,13 +119,16 @@
   </si>
   <si>
     <t>Transport-moving</t>
+  </si>
+  <si>
+    <t>Adult</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,21 +191,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -231,7 +235,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -265,7 +269,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,10 +303,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,16 +478,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -501,379 +501,724 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>0.51448560455600323</v>
+        <v>0.7840961804508317</v>
       </c>
       <c r="D2">
-        <v>0.97458931395099468</v>
+        <v>0.1094605886175843</v>
       </c>
       <c r="E2">
+        <v>0.1094605886175843</v>
+      </c>
+      <c r="F2">
+        <v>0.7961209090006668</v>
+      </c>
+      <c r="G2">
+        <v>0.7842035900530865</v>
+      </c>
+      <c r="H2">
+        <v>0.9745893139509947</v>
+      </c>
+      <c r="I2">
         <v>10771</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0.7840961804508317</v>
+      </c>
+      <c r="D3">
+        <v>0.3057365764111978</v>
+      </c>
+      <c r="E3">
+        <v>0.3057365764111978</v>
+      </c>
+      <c r="F3">
+        <v>0.7144865505758822</v>
+      </c>
+      <c r="G3">
+        <v>0.7169829994602853</v>
+      </c>
+      <c r="H3">
+        <v>0.9656685994507793</v>
+      </c>
+      <c r="I3">
+        <v>21790</v>
+      </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0.9716481839766909</v>
+      </c>
+      <c r="D4">
+        <v>0.1157556270096463</v>
+      </c>
+      <c r="E4">
+        <v>0.1157556270096463</v>
+      </c>
+      <c r="F4">
+        <v>0.8154822368221509</v>
+      </c>
+      <c r="G4">
+        <v>0.7870166461792574</v>
+      </c>
+      <c r="H4">
+        <v>0.9653704022313925</v>
+      </c>
+      <c r="I4">
+        <v>311</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0.9896611022980034</v>
+      </c>
+      <c r="D5">
+        <v>0.2656400384985563</v>
+      </c>
+      <c r="E5">
+        <v>0.2656400384985563</v>
+      </c>
+      <c r="F5">
+        <v>0.7187405251873488</v>
+      </c>
+      <c r="G5">
+        <v>0.7327909817050888</v>
+      </c>
+      <c r="H5">
+        <v>0.9583041791332508</v>
+      </c>
+      <c r="I5">
+        <v>1039</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.9110333392894487</v>
+      </c>
+      <c r="D6">
+        <v>0.1238796414852753</v>
+      </c>
+      <c r="E6">
+        <v>0.1238796414852753</v>
+      </c>
+      <c r="F6">
+        <v>0.8065045522602061</v>
+      </c>
+      <c r="G6">
+        <v>0.7814005099819341</v>
+      </c>
+      <c r="H6">
+        <v>0.9618042720396045</v>
+      </c>
+      <c r="I6">
+        <v>3124</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0.9685653362134182</v>
+      </c>
+      <c r="D7">
+        <v>0.09225092250922509</v>
+      </c>
+      <c r="E7">
+        <v>0.09225092250922509</v>
+      </c>
+      <c r="F7">
+        <v>0.8374400017503822</v>
+      </c>
+      <c r="G7">
+        <v>0.7954939125551342</v>
+      </c>
+      <c r="H7">
+        <v>0.9397818950738226</v>
+      </c>
+      <c r="I7">
+        <v>271</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0.9148772895020616</v>
+      </c>
+      <c r="D8">
+        <v>0.2558599367270636</v>
+      </c>
+      <c r="E8">
+        <v>0.2558599367270636</v>
+      </c>
+      <c r="F8">
+        <v>0.7332767977005346</v>
+      </c>
+      <c r="G8">
+        <v>0.7497202257859513</v>
+      </c>
+      <c r="H8">
+        <v>0.9795174230673422</v>
+      </c>
+      <c r="I8">
+        <v>27816</v>
+      </c>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0.9215728254199677</v>
+      </c>
+      <c r="D9">
+        <v>0.1036353771025502</v>
+      </c>
+      <c r="E9">
+        <v>0.1036353771025502</v>
+      </c>
+      <c r="F9">
+        <v>0.8245758395654857</v>
+      </c>
+      <c r="G9">
+        <v>0.7894866139375853</v>
+      </c>
+      <c r="H9">
+        <v>0.9579446937504105</v>
+      </c>
+      <c r="I9">
+        <v>1843</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0.9101266850195098</v>
+      </c>
+      <c r="D10">
+        <v>0.1344827586206896</v>
+      </c>
+      <c r="E10">
+        <v>0.1344827586206896</v>
+      </c>
+      <c r="F10">
+        <v>0.7760195851953052</v>
+      </c>
+      <c r="G10">
+        <v>0.7799187960253173</v>
+      </c>
+      <c r="H10">
+        <v>0.9527320364929603</v>
+      </c>
+      <c r="I10">
+        <v>3770</v>
+      </c>
+      <c r="J10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0.9971167008408612</v>
+      </c>
+      <c r="D11">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="F11">
+        <v>0.8771311210410067</v>
+      </c>
+      <c r="G11">
+        <v>0.7890030812938826</v>
+      </c>
+      <c r="H11">
+        <v>0.8951288854198197</v>
+      </c>
+      <c r="I11">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>0.81262324413088305</v>
-      </c>
-      <c r="D3">
-        <v>0.96566859945077932</v>
-      </c>
-      <c r="E3">
-        <v>21790</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>0.53896676949079658</v>
-      </c>
-      <c r="D4">
-        <v>0.96537040223139248</v>
-      </c>
-      <c r="E4">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>0.96737571547529166</v>
-      </c>
-      <c r="D5">
-        <v>0.95830417913325083</v>
-      </c>
-      <c r="E5">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>0.57212452837767902</v>
-      </c>
-      <c r="D6">
-        <v>0.9618042720396045</v>
-      </c>
-      <c r="E6">
-        <v>3124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>0.45306719895556707</v>
-      </c>
-      <c r="D7">
-        <v>0.93978189507382259</v>
-      </c>
-      <c r="E7">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>0.98776165754619805</v>
-      </c>
-      <c r="D8">
-        <v>0.97951742306734224</v>
-      </c>
-      <c r="E8">
-        <v>27816</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>0.49279323740250158</v>
-      </c>
-      <c r="D9">
-        <v>0.95794469375041047</v>
-      </c>
-      <c r="E9">
-        <v>1843</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>0.61789881299852145</v>
-      </c>
-      <c r="D10">
-        <v>0.95273203649296034</v>
-      </c>
-      <c r="E10">
-        <v>3770</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.52080042417822348</v>
-      </c>
-      <c r="D11">
-        <v>0.89512888541981972</v>
-      </c>
-      <c r="E11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.98913810569816374</v>
+        <v>0.9875326107483883</v>
       </c>
       <c r="D12">
-        <v>0.90389096829270132</v>
+        <v>0.2266406440595267</v>
       </c>
       <c r="E12">
+        <v>0.2266406440595267</v>
+      </c>
+      <c r="F12">
+        <v>0.7320260969952763</v>
+      </c>
+      <c r="G12">
+        <v>0.7484423930872521</v>
+      </c>
+      <c r="H12">
+        <v>0.9038909682927013</v>
+      </c>
+      <c r="I12">
         <v>4099</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>0.23610945978472231</v>
+        <v>0.7852473253544876</v>
       </c>
       <c r="D13">
-        <v>0.86771140137126379</v>
+        <v>0.4840137727496311</v>
       </c>
       <c r="E13">
+        <v>0.4840137727496311</v>
+      </c>
+      <c r="F13">
+        <v>0.6396955785136591</v>
+      </c>
+      <c r="G13">
+        <v>0.6462359738404237</v>
+      </c>
+      <c r="H13">
+        <v>0.8677114013712638</v>
+      </c>
+      <c r="I13">
         <v>4066</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>0.53872257065479034</v>
+        <v>0.9482839338471271</v>
       </c>
       <c r="D14">
-        <v>0.96779132341060381</v>
+        <v>0.1156941649899396</v>
       </c>
       <c r="E14">
+        <v>0.1156941649899396</v>
+      </c>
+      <c r="F14">
+        <v>0.7690608335141295</v>
+      </c>
+      <c r="G14">
+        <v>0.7880812730588391</v>
+      </c>
+      <c r="H14">
+        <v>0.9677913234106038</v>
+      </c>
+      <c r="I14">
         <v>994</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C15">
-        <v>0.36579580008020701</v>
+        <v>0.9129137398419909</v>
       </c>
       <c r="D15">
-        <v>0.89317112548508082</v>
+        <v>0.06277372262773723</v>
       </c>
       <c r="E15">
+        <v>0.06277372262773723</v>
+      </c>
+      <c r="F15">
+        <v>0.8667847977047309</v>
+      </c>
+      <c r="G15">
+        <v>0.8029677422700148</v>
+      </c>
+      <c r="H15">
+        <v>0.8931711254850808</v>
+      </c>
+      <c r="I15">
         <v>1370</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16">
-        <v>0.57630529327082991</v>
+        <v>0.9307489919123422</v>
       </c>
       <c r="D16">
-        <v>0.89420586297764981</v>
+        <v>0.1248751248751249</v>
       </c>
       <c r="E16">
+        <v>0.1248751248751249</v>
+      </c>
+      <c r="F16">
+        <v>0.8029650007282976</v>
+      </c>
+      <c r="G16">
+        <v>0.781487218350571</v>
+      </c>
+      <c r="H16">
+        <v>0.8942058629776498</v>
+      </c>
+      <c r="I16">
         <v>2002</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17">
-        <v>0.31534235269413002</v>
+        <v>0.8437713435647247</v>
       </c>
       <c r="D17">
-        <v>0.90896076010619165</v>
+        <v>0.04157814871016692</v>
       </c>
       <c r="E17">
+        <v>0.04157814871016692</v>
+      </c>
+      <c r="F17">
+        <v>0.8687104729144607</v>
+      </c>
+      <c r="G17">
+        <v>0.8057748988698868</v>
+      </c>
+      <c r="H17">
+        <v>0.9089607601061916</v>
+      </c>
+      <c r="I17">
         <v>3295</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18">
-        <v>0.25015102977950898</v>
+        <v>0.9634105837862709</v>
       </c>
       <c r="D18">
-        <v>0.92458342708148855</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="E18">
+        <v>0.006711409395973154</v>
+      </c>
+      <c r="F18">
+        <v>0.8947035707678042</v>
+      </c>
+      <c r="G18">
+        <v>0.8269022018073761</v>
+      </c>
+      <c r="H18">
+        <v>0.9245834270814886</v>
+      </c>
+      <c r="I18">
         <v>149</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19">
-        <v>0.29659664623145898</v>
+        <v>0.8142419588381402</v>
       </c>
       <c r="D19">
+        <v>0.4490338164251207</v>
+      </c>
+      <c r="E19">
+        <v>0.4490338164251207</v>
+      </c>
+      <c r="F19">
+        <v>0.6371072307199268</v>
+      </c>
+      <c r="G19">
+        <v>0.656608462292448</v>
+      </c>
+      <c r="H19">
         <v>0.7697830741032502</v>
       </c>
-      <c r="E19">
+      <c r="I19">
         <v>4140</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>0.72006171936448304</v>
+        <v>0.9721384900222521</v>
       </c>
       <c r="D20">
-        <v>0.90593554569340906</v>
+        <v>0.325115562403698</v>
       </c>
       <c r="E20">
+        <v>0.325115562403698</v>
+      </c>
+      <c r="F20">
+        <v>0.6619234704419459</v>
+      </c>
+      <c r="G20">
+        <v>0.7118088307402882</v>
+      </c>
+      <c r="H20">
+        <v>0.9059355456934091</v>
+      </c>
+      <c r="I20">
         <v>649</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21">
-        <v>0.95744533287324363</v>
+        <v>0.9764256676875893</v>
       </c>
       <c r="D21">
-        <v>0.99225952434403242</v>
+        <v>0.2693150684931507</v>
       </c>
       <c r="E21">
+        <v>0.2693150684931507</v>
+      </c>
+      <c r="F21">
+        <v>0.7284577603743526</v>
+      </c>
+      <c r="G21">
+        <v>0.731331198213756</v>
+      </c>
+      <c r="H21">
+        <v>0.9922595243440324</v>
+      </c>
+      <c r="I21">
         <v>3650</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22">
-        <v>0.81627462701707099</v>
+        <v>0.9745195531494028</v>
       </c>
       <c r="D22">
-        <v>0.91916886653838348</v>
+        <v>0.3049568965517241</v>
       </c>
       <c r="E22">
+        <v>0.3049568965517241</v>
+      </c>
+      <c r="F22">
+        <v>0.6746619001666342</v>
+      </c>
+      <c r="G22">
+        <v>0.7194358673396646</v>
+      </c>
+      <c r="H22">
+        <v>0.9191688665383835</v>
+      </c>
+      <c r="I22">
         <v>928</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23">
-        <v>0.91791422476254059</v>
+        <v>0.9786901241986881</v>
       </c>
       <c r="D23">
-        <v>0.92632186386394444</v>
+        <v>0.2003757044458359</v>
       </c>
       <c r="E23">
+        <v>0.2003757044458359</v>
+      </c>
+      <c r="F23">
+        <v>0.7398641303300842</v>
+      </c>
+      <c r="G23">
+        <v>0.756881912154059</v>
+      </c>
+      <c r="H23">
+        <v>0.9263218638639444</v>
+      </c>
+      <c r="I23">
         <v>1597</v>
+      </c>
+      <c r="J23" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/results/real_classification_adult.xlsx
+++ b/results/real_classification_adult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="35">
   <si>
     <t>Protected_Feature</t>
   </si>
@@ -25,24 +25,15 @@
     <t>weighted_Fairness_target</t>
   </si>
   <si>
-    <t>weighted_average_target</t>
-  </si>
-  <si>
-    <t>weighted_otheravg_target</t>
-  </si>
-  <si>
-    <t>weighted_average_pred</t>
-  </si>
-  <si>
-    <t>weighted_otheravg_pred</t>
-  </si>
-  <si>
     <t>weighted_Fairness_pred</t>
   </si>
   <si>
     <t>count</t>
   </si>
   <si>
+    <t>global_bias_direction</t>
+  </si>
+  <si>
     <t>dataset</t>
   </si>
   <si>
@@ -119,6 +110,12 @@
   </si>
   <si>
     <t>Transport-moving</t>
+  </si>
+  <si>
+    <t>no bias</t>
+  </si>
+  <si>
+    <t>mixed</t>
   </si>
   <si>
     <t>Adult</t>
@@ -479,13 +476,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,718 +504,511 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
       </c>
       <c r="C2">
         <v>0.7840961804508317</v>
       </c>
       <c r="D2">
-        <v>0.1094605886175843</v>
+        <v>0.9745893139509947</v>
       </c>
       <c r="E2">
-        <v>0.1094605886175843</v>
-      </c>
-      <c r="F2">
-        <v>0.7961209090006668</v>
-      </c>
-      <c r="G2">
-        <v>0.7842035900530865</v>
-      </c>
-      <c r="H2">
-        <v>0.9745893139509947</v>
-      </c>
-      <c r="I2">
         <v>10771</v>
       </c>
-      <c r="J2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C3">
         <v>0.7840961804508317</v>
       </c>
       <c r="D3">
-        <v>0.3057365764111978</v>
+        <v>0.9656685994507793</v>
       </c>
       <c r="E3">
-        <v>0.3057365764111978</v>
-      </c>
-      <c r="F3">
-        <v>0.7144865505758822</v>
-      </c>
-      <c r="G3">
-        <v>0.7169829994602853</v>
-      </c>
-      <c r="H3">
-        <v>0.9656685994507793</v>
-      </c>
-      <c r="I3">
         <v>21790</v>
       </c>
-      <c r="J3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>0.9716481839766909</v>
       </c>
       <c r="D4">
-        <v>0.1157556270096463</v>
+        <v>0.9653704022313925</v>
       </c>
       <c r="E4">
-        <v>0.1157556270096463</v>
-      </c>
-      <c r="F4">
-        <v>0.8154822368221509</v>
-      </c>
-      <c r="G4">
-        <v>0.7870166461792574</v>
-      </c>
-      <c r="H4">
-        <v>0.9653704022313925</v>
-      </c>
-      <c r="I4">
         <v>311</v>
       </c>
-      <c r="J4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>0.9896611022980034</v>
       </c>
       <c r="D5">
-        <v>0.2656400384985563</v>
+        <v>0.9583041791332508</v>
       </c>
       <c r="E5">
-        <v>0.2656400384985563</v>
-      </c>
-      <c r="F5">
-        <v>0.7187405251873488</v>
-      </c>
-      <c r="G5">
-        <v>0.7327909817050888</v>
-      </c>
-      <c r="H5">
-        <v>0.9583041791332508</v>
-      </c>
-      <c r="I5">
         <v>1039</v>
       </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6">
         <v>0.9110333392894487</v>
       </c>
       <c r="D6">
-        <v>0.1238796414852753</v>
+        <v>0.9618042720396045</v>
       </c>
       <c r="E6">
-        <v>0.1238796414852753</v>
-      </c>
-      <c r="F6">
-        <v>0.8065045522602061</v>
-      </c>
-      <c r="G6">
-        <v>0.7814005099819341</v>
-      </c>
-      <c r="H6">
-        <v>0.9618042720396045</v>
-      </c>
-      <c r="I6">
         <v>3124</v>
       </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>0.9685653362134182</v>
       </c>
       <c r="D7">
-        <v>0.09225092250922509</v>
+        <v>0.9397818950738226</v>
       </c>
       <c r="E7">
-        <v>0.09225092250922509</v>
-      </c>
-      <c r="F7">
-        <v>0.8374400017503822</v>
-      </c>
-      <c r="G7">
-        <v>0.7954939125551342</v>
-      </c>
-      <c r="H7">
-        <v>0.9397818950738226</v>
-      </c>
-      <c r="I7">
         <v>271</v>
       </c>
-      <c r="J7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>0.9148772895020616</v>
       </c>
       <c r="D8">
-        <v>0.2558599367270636</v>
+        <v>0.9795174230673422</v>
       </c>
       <c r="E8">
-        <v>0.2558599367270636</v>
-      </c>
-      <c r="F8">
-        <v>0.7332767977005346</v>
-      </c>
-      <c r="G8">
-        <v>0.7497202257859513</v>
-      </c>
-      <c r="H8">
-        <v>0.9795174230673422</v>
-      </c>
-      <c r="I8">
         <v>27816</v>
       </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>0.9215728254199677</v>
       </c>
       <c r="D9">
-        <v>0.1036353771025502</v>
+        <v>0.9579446937504105</v>
       </c>
       <c r="E9">
-        <v>0.1036353771025502</v>
-      </c>
-      <c r="F9">
-        <v>0.8245758395654857</v>
-      </c>
-      <c r="G9">
-        <v>0.7894866139375853</v>
-      </c>
-      <c r="H9">
-        <v>0.9579446937504105</v>
-      </c>
-      <c r="I9">
         <v>1843</v>
       </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>0.9101266850195098</v>
       </c>
       <c r="D10">
-        <v>0.1344827586206896</v>
+        <v>0.9527320364929603</v>
       </c>
       <c r="E10">
-        <v>0.1344827586206896</v>
-      </c>
-      <c r="F10">
-        <v>0.7760195851953052</v>
-      </c>
-      <c r="G10">
-        <v>0.7799187960253173</v>
-      </c>
-      <c r="H10">
-        <v>0.9527320364929603</v>
-      </c>
-      <c r="I10">
         <v>3770</v>
       </c>
-      <c r="J10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>0.9971167008408612</v>
       </c>
       <c r="D11">
-        <v>0.1111111111111111</v>
+        <v>0.8951288854198197</v>
       </c>
       <c r="E11">
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="F11">
-        <v>0.8771311210410067</v>
-      </c>
-      <c r="G11">
-        <v>0.7890030812938826</v>
-      </c>
-      <c r="H11">
-        <v>0.8951288854198197</v>
-      </c>
-      <c r="I11">
-        <v>9</v>
-      </c>
-      <c r="J11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C12">
         <v>0.9875326107483883</v>
       </c>
       <c r="D12">
-        <v>0.2266406440595267</v>
+        <v>0.9038909682927013</v>
       </c>
       <c r="E12">
-        <v>0.2266406440595267</v>
-      </c>
-      <c r="F12">
-        <v>0.7320260969952763</v>
-      </c>
-      <c r="G12">
-        <v>0.7484423930872521</v>
-      </c>
-      <c r="H12">
-        <v>0.9038909682927013</v>
-      </c>
-      <c r="I12">
         <v>4099</v>
       </c>
-      <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>0.7852473253544876</v>
       </c>
       <c r="D13">
-        <v>0.4840137727496311</v>
+        <v>0.8677114013712638</v>
       </c>
       <c r="E13">
-        <v>0.4840137727496311</v>
-      </c>
-      <c r="F13">
-        <v>0.6396955785136591</v>
-      </c>
-      <c r="G13">
-        <v>0.6462359738404237</v>
-      </c>
-      <c r="H13">
-        <v>0.8677114013712638</v>
-      </c>
-      <c r="I13">
         <v>4066</v>
       </c>
-      <c r="J13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="F13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0.9482839338471271</v>
       </c>
       <c r="D14">
-        <v>0.1156941649899396</v>
+        <v>0.9677913234106038</v>
       </c>
       <c r="E14">
-        <v>0.1156941649899396</v>
-      </c>
-      <c r="F14">
-        <v>0.7690608335141295</v>
-      </c>
-      <c r="G14">
-        <v>0.7880812730588391</v>
-      </c>
-      <c r="H14">
-        <v>0.9677913234106038</v>
-      </c>
-      <c r="I14">
         <v>994</v>
       </c>
-      <c r="J14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="F14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C15">
         <v>0.9129137398419909</v>
       </c>
       <c r="D15">
-        <v>0.06277372262773723</v>
+        <v>0.8931711254850808</v>
       </c>
       <c r="E15">
-        <v>0.06277372262773723</v>
-      </c>
-      <c r="F15">
-        <v>0.8667847977047309</v>
-      </c>
-      <c r="G15">
-        <v>0.8029677422700148</v>
-      </c>
-      <c r="H15">
-        <v>0.8931711254850808</v>
-      </c>
-      <c r="I15">
         <v>1370</v>
       </c>
-      <c r="J15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>0.9307489919123422</v>
       </c>
       <c r="D16">
-        <v>0.1248751248751249</v>
+        <v>0.8942058629776498</v>
       </c>
       <c r="E16">
-        <v>0.1248751248751249</v>
-      </c>
-      <c r="F16">
-        <v>0.8029650007282976</v>
-      </c>
-      <c r="G16">
-        <v>0.781487218350571</v>
-      </c>
-      <c r="H16">
-        <v>0.8942058629776498</v>
-      </c>
-      <c r="I16">
         <v>2002</v>
       </c>
-      <c r="J16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="F16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C17">
         <v>0.8437713435647247</v>
       </c>
       <c r="D17">
-        <v>0.04157814871016692</v>
+        <v>0.9089607601061916</v>
       </c>
       <c r="E17">
-        <v>0.04157814871016692</v>
-      </c>
-      <c r="F17">
-        <v>0.8687104729144607</v>
-      </c>
-      <c r="G17">
-        <v>0.8057748988698868</v>
-      </c>
-      <c r="H17">
-        <v>0.9089607601061916</v>
-      </c>
-      <c r="I17">
         <v>3295</v>
       </c>
-      <c r="J17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="F17" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C18">
         <v>0.9634105837862709</v>
       </c>
       <c r="D18">
-        <v>0.006711409395973154</v>
+        <v>0.9245834270814886</v>
       </c>
       <c r="E18">
-        <v>0.006711409395973154</v>
-      </c>
-      <c r="F18">
-        <v>0.8947035707678042</v>
-      </c>
-      <c r="G18">
-        <v>0.8269022018073761</v>
-      </c>
-      <c r="H18">
-        <v>0.9245834270814886</v>
-      </c>
-      <c r="I18">
         <v>149</v>
       </c>
-      <c r="J18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="F18" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>0.8142419588381402</v>
       </c>
       <c r="D19">
-        <v>0.4490338164251207</v>
+        <v>0.7697830741032502</v>
       </c>
       <c r="E19">
-        <v>0.4490338164251207</v>
-      </c>
-      <c r="F19">
-        <v>0.6371072307199268</v>
-      </c>
-      <c r="G19">
-        <v>0.656608462292448</v>
-      </c>
-      <c r="H19">
-        <v>0.7697830741032502</v>
-      </c>
-      <c r="I19">
         <v>4140</v>
       </c>
-      <c r="J19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20">
         <v>0.9721384900222521</v>
       </c>
       <c r="D20">
-        <v>0.325115562403698</v>
+        <v>0.9059355456934091</v>
       </c>
       <c r="E20">
-        <v>0.325115562403698</v>
-      </c>
-      <c r="F20">
-        <v>0.6619234704419459</v>
-      </c>
-      <c r="G20">
-        <v>0.7118088307402882</v>
-      </c>
-      <c r="H20">
-        <v>0.9059355456934091</v>
-      </c>
-      <c r="I20">
         <v>649</v>
       </c>
-      <c r="J20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C21">
         <v>0.9764256676875893</v>
       </c>
       <c r="D21">
-        <v>0.2693150684931507</v>
+        <v>0.9922595243440324</v>
       </c>
       <c r="E21">
-        <v>0.2693150684931507</v>
-      </c>
-      <c r="F21">
-        <v>0.7284577603743526</v>
-      </c>
-      <c r="G21">
-        <v>0.731331198213756</v>
-      </c>
-      <c r="H21">
-        <v>0.9922595243440324</v>
-      </c>
-      <c r="I21">
         <v>3650</v>
       </c>
-      <c r="J21" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>0.9745195531494028</v>
       </c>
       <c r="D22">
-        <v>0.3049568965517241</v>
+        <v>0.9191688665383835</v>
       </c>
       <c r="E22">
-        <v>0.3049568965517241</v>
-      </c>
-      <c r="F22">
-        <v>0.6746619001666342</v>
-      </c>
-      <c r="G22">
-        <v>0.7194358673396646</v>
-      </c>
-      <c r="H22">
-        <v>0.9191688665383835</v>
-      </c>
-      <c r="I22">
         <v>928</v>
       </c>
-      <c r="J22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C23">
         <v>0.9786901241986881</v>
       </c>
       <c r="D23">
-        <v>0.2003757044458359</v>
+        <v>0.9263218638639444</v>
       </c>
       <c r="E23">
-        <v>0.2003757044458359</v>
-      </c>
-      <c r="F23">
-        <v>0.7398641303300842</v>
-      </c>
-      <c r="G23">
-        <v>0.756881912154059</v>
-      </c>
-      <c r="H23">
-        <v>0.9263218638639444</v>
-      </c>
-      <c r="I23">
         <v>1597</v>
       </c>
-      <c r="J23" t="s">
-        <v>35</v>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
